--- a/0893374_Summer_Speed.xlsx
+++ b/0893374_Summer_Speed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16788\OneDrive\Desktop\Traffic Data Local Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F736CB7D-7D59-417E-95AC-80E7297049B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E427F-BA82-42D4-B873-66AF435B0F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8CCA130E-8706-47EE-8522-5463597AD9AF}"/>
   </bookViews>
@@ -57,13 +57,13 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,7 +979,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
